--- a/data/qa_testing_report_mock.xlsx
+++ b/data/qa_testing_report_mock.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="894" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1035" uniqueCount="197">
   <si>
     <t>Metric</t>
   </si>
@@ -524,82 +524,88 @@
     <t>TC_150</t>
   </si>
   <si>
+    <t>iOS</t>
+  </si>
+  <si>
+    <t>Android</t>
+  </si>
+  <si>
+    <t>Soft Currency</t>
+  </si>
+  <si>
+    <t>Gameplay</t>
+  </si>
+  <si>
+    <t>Hard Currency</t>
+  </si>
+  <si>
+    <t>Performance</t>
+  </si>
+  <si>
     <t>UI</t>
   </si>
   <si>
-    <t>Performance</t>
-  </si>
-  <si>
-    <t>Gameplay</t>
-  </si>
-  <si>
-    <t>Hard Currency</t>
-  </si>
-  <si>
-    <t>Soft Currency</t>
+    <t>Matchmaking</t>
+  </si>
+  <si>
+    <t>Animations</t>
   </si>
   <si>
     <t>Coins</t>
   </si>
   <si>
+    <t>Store</t>
+  </si>
+  <si>
+    <t>Ads</t>
+  </si>
+  <si>
     <t>Rewards</t>
   </si>
   <si>
-    <t>Store</t>
-  </si>
-  <si>
-    <t>Ads</t>
-  </si>
-  <si>
-    <t>Matchmaking</t>
-  </si>
-  <si>
-    <t>Animations</t>
-  </si>
-  <si>
     <t>Gems</t>
   </si>
   <si>
     <t>Fail</t>
   </si>
   <si>
+    <t>In Progress</t>
+  </si>
+  <si>
     <t>Pass</t>
   </si>
   <si>
     <t>Blocked</t>
   </si>
   <si>
-    <t>In Progress</t>
+    <t>nan</t>
+  </si>
+  <si>
+    <t>Critical</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>High</t>
   </si>
   <si>
     <t>Low</t>
   </si>
   <si>
-    <t>nan</t>
-  </si>
-  <si>
-    <t>Medium</t>
-  </si>
-  <si>
-    <t>High</t>
-  </si>
-  <si>
-    <t>Critical</t>
+    <t>Crash on purchase</t>
+  </si>
+  <si>
+    <t>Ad not displaying properly</t>
+  </si>
+  <si>
+    <t>Lag during gameplay</t>
+  </si>
+  <si>
+    <t>Visual glitch on UI</t>
   </si>
   <si>
     <t>Incorrect reward calculation</t>
-  </si>
-  <si>
-    <t>Visual glitch on UI</t>
-  </si>
-  <si>
-    <t>Ad not displaying properly</t>
-  </si>
-  <si>
-    <t>Crash on purchase</t>
-  </si>
-  <si>
-    <t>Lag during gameplay</t>
   </si>
 </sst>
 </file>
@@ -1026,33 +1032,36 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F151"/>
+  <dimension ref="A1:G151"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>19</v>
       </c>
@@ -1060,16 +1069,22 @@
         <v>169</v>
       </c>
       <c r="C2" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D2" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="E2" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>183</v>
+      </c>
+      <c r="F2" t="s">
+        <v>187</v>
+      </c>
+      <c r="G2" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>20</v>
       </c>
@@ -1077,39 +1092,42 @@
         <v>170</v>
       </c>
       <c r="C3" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="D3" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="E3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F3" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>188</v>
+      </c>
+      <c r="G3" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>21</v>
       </c>
       <c r="B4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C4" t="s">
+        <v>172</v>
+      </c>
+      <c r="D4" t="s">
         <v>176</v>
       </c>
-      <c r="D4" t="s">
-        <v>183</v>
-      </c>
       <c r="E4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F4" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
         <v>22</v>
       </c>
@@ -1117,116 +1135,128 @@
         <v>170</v>
       </c>
       <c r="C5" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D5" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="E5" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="F5" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <v>189</v>
+      </c>
+      <c r="G5" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
         <v>23</v>
       </c>
       <c r="B6" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C6" t="s">
         <v>174</v>
       </c>
       <c r="D6" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="E6" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F6" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
         <v>24</v>
       </c>
       <c r="B7" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D7" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="E7" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F7" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" t="s">
         <v>25</v>
       </c>
       <c r="B8" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C8" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="D8" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="E8" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>185</v>
+      </c>
+      <c r="F8" t="s">
+        <v>190</v>
+      </c>
+      <c r="G8" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" t="s">
         <v>26</v>
       </c>
       <c r="B9" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C9" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D9" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="E9" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="F9" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" t="s">
         <v>27</v>
       </c>
       <c r="B10" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C10" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D10" t="s">
         <v>181</v>
       </c>
       <c r="E10" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="F10" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>189</v>
+      </c>
+      <c r="G10" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" t="s">
         <v>28</v>
       </c>
@@ -1234,19 +1264,19 @@
         <v>170</v>
       </c>
       <c r="C11" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="D11" t="s">
         <v>181</v>
       </c>
       <c r="E11" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="F11" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" t="s">
         <v>29</v>
       </c>
@@ -1254,24 +1284,24 @@
         <v>169</v>
       </c>
       <c r="C12" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="D12" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="E12" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="F12" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" t="s">
         <v>30</v>
       </c>
       <c r="B13" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C13" t="s">
         <v>174</v>
@@ -1280,13 +1310,13 @@
         <v>182</v>
       </c>
       <c r="E13" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F13" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" t="s">
         <v>31</v>
       </c>
@@ -1294,39 +1324,45 @@
         <v>170</v>
       </c>
       <c r="C14" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D14" t="s">
         <v>182</v>
       </c>
       <c r="E14" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="F14" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>191</v>
+      </c>
+      <c r="G14" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" t="s">
         <v>32</v>
       </c>
       <c r="B15" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C15" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D15" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E15" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="F15" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
+        <v>189</v>
+      </c>
+      <c r="G15" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" t="s">
         <v>33</v>
       </c>
@@ -1334,36 +1370,45 @@
         <v>169</v>
       </c>
       <c r="C16" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="D16" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="E16" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>185</v>
+      </c>
+      <c r="F16" t="s">
+        <v>189</v>
+      </c>
+      <c r="G16" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" t="s">
         <v>34</v>
       </c>
       <c r="B17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C17" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="D17" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="E17" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="F17" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
+        <v>190</v>
+      </c>
+      <c r="G17" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" t="s">
         <v>35</v>
       </c>
@@ -1371,19 +1416,22 @@
         <v>169</v>
       </c>
       <c r="C18" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D18" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="E18" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F18" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
+        <v>187</v>
+      </c>
+      <c r="G18" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" t="s">
         <v>36</v>
       </c>
@@ -1391,39 +1439,42 @@
         <v>170</v>
       </c>
       <c r="C19" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D19" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="E19" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F19" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" t="s">
         <v>37</v>
       </c>
       <c r="B20" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C20" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="D20" t="s">
+        <v>182</v>
+      </c>
+      <c r="E20" t="s">
         <v>183</v>
       </c>
-      <c r="E20" t="s">
-        <v>188</v>
-      </c>
       <c r="F20" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>187</v>
+      </c>
+      <c r="G20" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" t="s">
         <v>38</v>
       </c>
@@ -1437,53 +1488,62 @@
         <v>181</v>
       </c>
       <c r="E21" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="F21" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>187</v>
+      </c>
+      <c r="G21" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" t="s">
         <v>39</v>
       </c>
       <c r="B22" t="s">
+        <v>170</v>
+      </c>
+      <c r="C22" t="s">
         <v>172</v>
       </c>
-      <c r="C22" t="s">
-        <v>177</v>
-      </c>
       <c r="D22" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E22" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F22" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
+        <v>191</v>
+      </c>
+      <c r="G22" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" t="s">
         <v>40</v>
       </c>
       <c r="B23" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C23" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="D23" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="E23" t="s">
         <v>186</v>
       </c>
       <c r="F23" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
+        <v>187</v>
+      </c>
+      <c r="G23" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" t="s">
         <v>41</v>
       </c>
@@ -1491,136 +1551,148 @@
         <v>169</v>
       </c>
       <c r="C24" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D24" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="E24" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F24" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>187</v>
+      </c>
+      <c r="G24" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" t="s">
         <v>42</v>
       </c>
       <c r="B25" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C25" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D25" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E25" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F25" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" t="s">
         <v>43</v>
       </c>
       <c r="B26" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C26" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D26" t="s">
         <v>182</v>
       </c>
       <c r="E26" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F26" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" t="s">
         <v>44</v>
       </c>
       <c r="B27" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C27" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="D27" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="E27" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
+        <v>186</v>
+      </c>
+      <c r="F27" t="s">
+        <v>191</v>
+      </c>
+      <c r="G27" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" t="s">
         <v>45</v>
       </c>
       <c r="B28" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C28" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D28" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="E28" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F28" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" t="s">
         <v>46</v>
       </c>
       <c r="B29" t="s">
+        <v>170</v>
+      </c>
+      <c r="C29" t="s">
         <v>172</v>
       </c>
-      <c r="C29" t="s">
-        <v>178</v>
-      </c>
       <c r="D29" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="E29" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F29" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" t="s">
         <v>47</v>
       </c>
       <c r="B30" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C30" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D30" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E30" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F30" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <v>187</v>
+      </c>
+      <c r="G30" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" t="s">
         <v>48</v>
       </c>
@@ -1628,36 +1700,42 @@
         <v>169</v>
       </c>
       <c r="C31" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D31" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="E31" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F31" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" t="s">
         <v>49</v>
       </c>
       <c r="B32" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C32" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D32" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="E32" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+        <v>186</v>
+      </c>
+      <c r="F32" t="s">
+        <v>187</v>
+      </c>
+      <c r="G32" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" t="s">
         <v>50</v>
       </c>
@@ -1665,19 +1743,22 @@
         <v>169</v>
       </c>
       <c r="C33" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="D33" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="E33" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F33" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+        <v>187</v>
+      </c>
+      <c r="G33" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" t="s">
         <v>51</v>
       </c>
@@ -1685,59 +1766,68 @@
         <v>169</v>
       </c>
       <c r="C34" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="D34" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E34" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="F34" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+        <v>189</v>
+      </c>
+      <c r="G34" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" t="s">
         <v>52</v>
       </c>
       <c r="B35" t="s">
+        <v>170</v>
+      </c>
+      <c r="C35" t="s">
         <v>173</v>
       </c>
-      <c r="C35" t="s">
-        <v>178</v>
-      </c>
       <c r="D35" t="s">
+        <v>176</v>
+      </c>
+      <c r="E35" t="s">
         <v>184</v>
       </c>
-      <c r="E35" t="s">
-        <v>186</v>
-      </c>
       <c r="F35" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6">
+        <v>190</v>
+      </c>
+      <c r="G35" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" t="s">
         <v>53</v>
       </c>
       <c r="B36" t="s">
+        <v>170</v>
+      </c>
+      <c r="C36" t="s">
         <v>171</v>
       </c>
-      <c r="C36" t="s">
-        <v>176</v>
-      </c>
       <c r="D36" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="E36" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F36" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+        <v>187</v>
+      </c>
+      <c r="G36" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" t="s">
         <v>54</v>
       </c>
@@ -1745,99 +1835,111 @@
         <v>170</v>
       </c>
       <c r="C37" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D37" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="E37" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F37" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6">
+        <v>191</v>
+      </c>
+      <c r="G37" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" t="s">
         <v>55</v>
       </c>
       <c r="B38" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C38" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="D38" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="E38" t="s">
         <v>186</v>
       </c>
       <c r="F38" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
+        <v>187</v>
+      </c>
+      <c r="G38" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" t="s">
         <v>56</v>
       </c>
       <c r="B39" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C39" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="D39" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="E39" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F39" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
+        <v>191</v>
+      </c>
+      <c r="G39" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" t="s">
         <v>57</v>
       </c>
       <c r="B40" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C40" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D40" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="E40" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="F40" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" t="s">
         <v>58</v>
       </c>
       <c r="B41" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C41" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="D41" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="E41" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="F41" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
+        <v>191</v>
+      </c>
+      <c r="G41" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" t="s">
         <v>59</v>
       </c>
@@ -1845,36 +1947,42 @@
         <v>169</v>
       </c>
       <c r="C42" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D42" t="s">
+        <v>177</v>
+      </c>
+      <c r="E42" t="s">
         <v>184</v>
       </c>
-      <c r="E42" t="s">
-        <v>185</v>
-      </c>
       <c r="F42" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" t="s">
         <v>60</v>
       </c>
       <c r="B43" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C43" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D43" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E43" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
+        <v>185</v>
+      </c>
+      <c r="F43" t="s">
+        <v>187</v>
+      </c>
+      <c r="G43" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" t="s">
         <v>61</v>
       </c>
@@ -1882,96 +1990,114 @@
         <v>169</v>
       </c>
       <c r="C44" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D44" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="E44" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="F44" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
+        <v>189</v>
+      </c>
+      <c r="G44" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" t="s">
         <v>62</v>
       </c>
       <c r="B45" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C45" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D45" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E45" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6">
+        <v>185</v>
+      </c>
+      <c r="F45" t="s">
+        <v>190</v>
+      </c>
+      <c r="G45" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" t="s">
         <v>63</v>
       </c>
       <c r="B46" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C46" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="D46" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="E46" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F46" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
+        <v>188</v>
+      </c>
+      <c r="G46" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" t="s">
         <v>64</v>
       </c>
       <c r="B47" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C47" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="D47" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="E47" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="F47" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
+        <v>187</v>
+      </c>
+      <c r="G47" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" t="s">
         <v>65</v>
       </c>
       <c r="B48" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C48" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D48" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E48" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F48" t="s">
+        <v>187</v>
+      </c>
+      <c r="G48" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:7">
       <c r="A49" t="s">
         <v>66</v>
       </c>
@@ -1979,39 +2105,45 @@
         <v>170</v>
       </c>
       <c r="C49" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="D49" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E49" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="F49" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6">
+        <v>187</v>
+      </c>
+      <c r="G49" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" t="s">
         <v>67</v>
       </c>
       <c r="B50" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C50" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D50" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E50" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="F50" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
+        <v>189</v>
+      </c>
+      <c r="G50" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" t="s">
         <v>68</v>
       </c>
@@ -2019,76 +2151,85 @@
         <v>169</v>
       </c>
       <c r="C51" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="D51" t="s">
+        <v>181</v>
+      </c>
+      <c r="E51" t="s">
         <v>184</v>
       </c>
-      <c r="E51" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
+      <c r="F51" t="s">
+        <v>190</v>
+      </c>
+      <c r="G51" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" t="s">
         <v>69</v>
       </c>
       <c r="B52" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C52" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D52" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="E52" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="F52" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" t="s">
         <v>70</v>
       </c>
       <c r="B53" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C53" t="s">
         <v>174</v>
       </c>
       <c r="D53" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="E53" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F53" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" t="s">
         <v>71</v>
       </c>
       <c r="B54" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C54" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D54" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E54" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F54" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
+        <v>191</v>
+      </c>
+      <c r="G54" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" t="s">
         <v>72</v>
       </c>
@@ -2096,59 +2237,65 @@
         <v>170</v>
       </c>
       <c r="C55" t="s">
+        <v>172</v>
+      </c>
+      <c r="D55" t="s">
         <v>176</v>
       </c>
-      <c r="D55" t="s">
-        <v>183</v>
-      </c>
       <c r="E55" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F55" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" t="s">
         <v>73</v>
       </c>
       <c r="B56" t="s">
+        <v>170</v>
+      </c>
+      <c r="C56" t="s">
         <v>171</v>
       </c>
-      <c r="C56" t="s">
-        <v>180</v>
-      </c>
       <c r="D56" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E56" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F56" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
+        <v>189</v>
+      </c>
+      <c r="G56" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" t="s">
         <v>74</v>
       </c>
       <c r="B57" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C57" t="s">
+        <v>171</v>
+      </c>
+      <c r="D57" t="s">
         <v>179</v>
       </c>
-      <c r="D57" t="s">
+      <c r="E57" t="s">
         <v>183</v>
       </c>
-      <c r="E57" t="s">
-        <v>187</v>
-      </c>
       <c r="F57" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
+        <v>187</v>
+      </c>
+      <c r="G57" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" t="s">
         <v>75</v>
       </c>
@@ -2156,36 +2303,45 @@
         <v>169</v>
       </c>
       <c r="C58" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="D58" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E58" t="s">
         <v>186</v>
       </c>
       <c r="F58" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
+        <v>189</v>
+      </c>
+      <c r="G58" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" t="s">
         <v>76</v>
       </c>
       <c r="B59" t="s">
+        <v>169</v>
+      </c>
+      <c r="C59" t="s">
         <v>172</v>
       </c>
-      <c r="C59" t="s">
-        <v>180</v>
-      </c>
       <c r="D59" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="E59" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="60" spans="1:6">
+      <c r="F59" t="s">
+        <v>191</v>
+      </c>
+      <c r="G59" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" t="s">
         <v>77</v>
       </c>
@@ -2193,56 +2349,65 @@
         <v>169</v>
       </c>
       <c r="C60" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="D60" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="E60" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="61" spans="1:6">
+      <c r="F60" t="s">
+        <v>187</v>
+      </c>
+      <c r="G60" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" t="s">
         <v>78</v>
       </c>
       <c r="B61" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C61" t="s">
         <v>175</v>
       </c>
       <c r="D61" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="E61" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F61" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
+        <v>189</v>
+      </c>
+      <c r="G61" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" t="s">
         <v>79</v>
       </c>
       <c r="B62" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C62" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="D62" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="E62" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="F62" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" t="s">
         <v>80</v>
       </c>
@@ -2253,16 +2418,19 @@
         <v>175</v>
       </c>
       <c r="D63" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E63" t="s">
         <v>185</v>
       </c>
       <c r="F63" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
+        <v>187</v>
+      </c>
+      <c r="G63" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" t="s">
         <v>81</v>
       </c>
@@ -2270,113 +2438,137 @@
         <v>170</v>
       </c>
       <c r="C64" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="D64" t="s">
         <v>181</v>
       </c>
       <c r="E64" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="F64" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
+        <v>187</v>
+      </c>
+      <c r="G64" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" t="s">
         <v>82</v>
       </c>
       <c r="B65" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C65" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="D65" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E65" t="s">
         <v>185</v>
       </c>
       <c r="F65" t="s">
+        <v>190</v>
+      </c>
+      <c r="G65" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="66" spans="1:6">
+    <row r="66" spans="1:7">
       <c r="A66" t="s">
         <v>83</v>
       </c>
       <c r="B66" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C66" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D66" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="E66" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
+        <v>184</v>
+      </c>
+      <c r="F66" t="s">
+        <v>187</v>
+      </c>
+      <c r="G66" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" t="s">
         <v>84</v>
       </c>
       <c r="B67" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C67" t="s">
         <v>175</v>
       </c>
       <c r="D67" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E67" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F67" t="s">
+        <v>191</v>
+      </c>
+      <c r="G67" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="68" spans="1:6">
+    <row r="68" spans="1:7">
       <c r="A68" t="s">
         <v>85</v>
       </c>
       <c r="B68" t="s">
+        <v>169</v>
+      </c>
+      <c r="C68" t="s">
         <v>172</v>
       </c>
-      <c r="C68" t="s">
-        <v>176</v>
-      </c>
       <c r="D68" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="E68" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F68" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
+        <v>189</v>
+      </c>
+      <c r="G68" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" t="s">
         <v>86</v>
       </c>
       <c r="B69" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C69" t="s">
+        <v>171</v>
+      </c>
+      <c r="D69" t="s">
         <v>179</v>
       </c>
-      <c r="D69" t="s">
-        <v>183</v>
-      </c>
       <c r="E69" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
+        <v>185</v>
+      </c>
+      <c r="F69" t="s">
+        <v>191</v>
+      </c>
+      <c r="G69" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" t="s">
         <v>87</v>
       </c>
@@ -2384,116 +2576,137 @@
         <v>169</v>
       </c>
       <c r="C70" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="D70" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="E70" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6">
+        <v>186</v>
+      </c>
+      <c r="F70" t="s">
+        <v>187</v>
+      </c>
+      <c r="G70" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" t="s">
         <v>88</v>
       </c>
       <c r="B71" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C71" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="D71" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E71" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="F71" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="72" spans="1:6">
+      <c r="G71" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" t="s">
         <v>89</v>
       </c>
       <c r="B72" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C72" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D72" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="E72" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F72" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
+        <v>189</v>
+      </c>
+      <c r="G72" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" t="s">
         <v>90</v>
       </c>
       <c r="B73" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C73" t="s">
+        <v>173</v>
+      </c>
+      <c r="D73" t="s">
         <v>176</v>
       </c>
-      <c r="D73" t="s">
-        <v>182</v>
-      </c>
       <c r="E73" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="F73" t="s">
+        <v>187</v>
+      </c>
+      <c r="G73" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="74" spans="1:6">
+    <row r="74" spans="1:7">
       <c r="A74" t="s">
         <v>91</v>
       </c>
       <c r="B74" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C74" t="s">
+        <v>173</v>
+      </c>
+      <c r="D74" t="s">
         <v>177</v>
       </c>
-      <c r="D74" t="s">
-        <v>181</v>
-      </c>
       <c r="E74" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="F74" t="s">
+        <v>189</v>
+      </c>
+      <c r="G74" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="75" spans="1:6">
+    <row r="75" spans="1:7">
       <c r="A75" t="s">
         <v>92</v>
       </c>
       <c r="B75" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C75" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D75" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="E75" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F75" t="s">
+        <v>190</v>
+      </c>
+      <c r="G75" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="76" spans="1:6">
+    <row r="76" spans="1:7">
       <c r="A76" t="s">
         <v>93</v>
       </c>
@@ -2501,27 +2714,33 @@
         <v>170</v>
       </c>
       <c r="C76" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D76" t="s">
         <v>182</v>
       </c>
       <c r="E76" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
+        <v>184</v>
+      </c>
+      <c r="F76" t="s">
+        <v>190</v>
+      </c>
+      <c r="G76" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" t="s">
         <v>94</v>
       </c>
       <c r="B77" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C77" t="s">
         <v>174</v>
       </c>
       <c r="D77" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E77" t="s">
         <v>186</v>
@@ -2529,28 +2748,31 @@
       <c r="F77" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="78" spans="1:6">
+      <c r="G77" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" t="s">
         <v>95</v>
       </c>
       <c r="B78" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C78" t="s">
+        <v>171</v>
+      </c>
+      <c r="D78" t="s">
         <v>178</v>
       </c>
-      <c r="D78" t="s">
-        <v>182</v>
-      </c>
       <c r="E78" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F78" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" t="s">
         <v>96</v>
       </c>
@@ -2558,19 +2780,22 @@
         <v>169</v>
       </c>
       <c r="C79" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D79" t="s">
         <v>181</v>
       </c>
       <c r="E79" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="F79" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6">
+        <v>190</v>
+      </c>
+      <c r="G79" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" t="s">
         <v>97</v>
       </c>
@@ -2578,16 +2803,19 @@
         <v>169</v>
       </c>
       <c r="C80" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="D80" t="s">
         <v>182</v>
       </c>
       <c r="E80" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
+        <v>184</v>
+      </c>
+      <c r="F80" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" t="s">
         <v>98</v>
       </c>
@@ -2595,19 +2823,22 @@
         <v>169</v>
       </c>
       <c r="C81" t="s">
+        <v>175</v>
+      </c>
+      <c r="D81" t="s">
         <v>179</v>
       </c>
-      <c r="D81" t="s">
-        <v>182</v>
-      </c>
       <c r="E81" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F81" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
+        <v>190</v>
+      </c>
+      <c r="G81" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" t="s">
         <v>99</v>
       </c>
@@ -2615,87 +2846,99 @@
         <v>170</v>
       </c>
       <c r="C82" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="D82" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="E82" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F82" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6">
+        <v>189</v>
+      </c>
+      <c r="G82" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" t="s">
         <v>100</v>
       </c>
       <c r="B83" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C83" t="s">
+        <v>174</v>
+      </c>
+      <c r="D83" t="s">
         <v>178</v>
       </c>
-      <c r="D83" t="s">
-        <v>182</v>
-      </c>
       <c r="E83" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
+        <v>184</v>
+      </c>
+      <c r="F83" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" t="s">
         <v>101</v>
       </c>
       <c r="B84" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C84" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D84" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="E84" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F84" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6">
+        <v>191</v>
+      </c>
+      <c r="G84" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" t="s">
         <v>102</v>
       </c>
       <c r="B85" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C85" t="s">
+        <v>172</v>
+      </c>
+      <c r="D85" t="s">
         <v>177</v>
       </c>
-      <c r="D85" t="s">
-        <v>181</v>
-      </c>
       <c r="E85" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F85" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
+        <v>187</v>
+      </c>
+      <c r="G85" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" t="s">
         <v>103</v>
       </c>
       <c r="B86" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C86" t="s">
+        <v>171</v>
+      </c>
+      <c r="D86" t="s">
         <v>178</v>
-      </c>
-      <c r="D86" t="s">
-        <v>183</v>
       </c>
       <c r="E86" t="s">
         <v>186</v>
@@ -2703,219 +2946,258 @@
       <c r="F86" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="87" spans="1:6">
+      <c r="G86" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" t="s">
         <v>104</v>
       </c>
       <c r="B87" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C87" t="s">
+        <v>171</v>
+      </c>
+      <c r="D87" t="s">
         <v>177</v>
       </c>
-      <c r="D87" t="s">
-        <v>182</v>
-      </c>
       <c r="E87" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
+        <v>185</v>
+      </c>
+      <c r="F87" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" t="s">
         <v>105</v>
       </c>
       <c r="B88" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C88" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="D88" t="s">
         <v>181</v>
       </c>
       <c r="E88" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F88" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
+        <v>188</v>
+      </c>
+      <c r="G88" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" t="s">
         <v>106</v>
       </c>
       <c r="B89" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C89" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="D89" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E89" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="F89" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
+        <v>190</v>
+      </c>
+      <c r="G89" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" t="s">
         <v>107</v>
       </c>
       <c r="B90" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C90" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D90" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="E90" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="F90" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
+        <v>189</v>
+      </c>
+      <c r="G90" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" t="s">
         <v>108</v>
       </c>
       <c r="B91" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C91" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D91" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E91" t="s">
         <v>185</v>
       </c>
       <c r="F91" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
+        <v>190</v>
+      </c>
+      <c r="G91" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" t="s">
         <v>109</v>
       </c>
       <c r="B92" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C92" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="D92" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="E92" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="F92" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
+        <v>190</v>
+      </c>
+      <c r="G92" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" t="s">
         <v>110</v>
       </c>
       <c r="B93" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C93" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D93" t="s">
         <v>181</v>
       </c>
       <c r="E93" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
+        <v>185</v>
+      </c>
+      <c r="F93" t="s">
+        <v>190</v>
+      </c>
+      <c r="G93" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" t="s">
         <v>111</v>
       </c>
       <c r="B94" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C94" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="D94" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="E94" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="F94" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
+        <v>191</v>
+      </c>
+      <c r="G94" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" t="s">
         <v>112</v>
       </c>
       <c r="B95" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C95" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D95" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="E95" t="s">
         <v>185</v>
       </c>
       <c r="F95" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
+        <v>189</v>
+      </c>
+      <c r="G95" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" t="s">
         <v>113</v>
       </c>
       <c r="B96" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C96" t="s">
         <v>174</v>
       </c>
       <c r="D96" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E96" t="s">
+        <v>185</v>
+      </c>
+      <c r="F96" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="97" spans="1:6">
+    <row r="97" spans="1:7">
       <c r="A97" t="s">
         <v>114</v>
       </c>
       <c r="B97" t="s">
+        <v>169</v>
+      </c>
+      <c r="C97" t="s">
         <v>171</v>
       </c>
-      <c r="C97" t="s">
-        <v>175</v>
-      </c>
       <c r="D97" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E97" t="s">
         <v>185</v>
       </c>
       <c r="F97" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6">
+        <v>191</v>
+      </c>
+      <c r="G97" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" t="s">
         <v>115</v>
       </c>
@@ -2923,79 +3205,91 @@
         <v>170</v>
       </c>
       <c r="C98" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="D98" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="E98" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="F98" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
+        <v>187</v>
+      </c>
+      <c r="G98" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" t="s">
         <v>116</v>
       </c>
       <c r="B99" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C99" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D99" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="E99" t="s">
+        <v>185</v>
+      </c>
+      <c r="F99" t="s">
         <v>188</v>
       </c>
-      <c r="F99" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6">
+      <c r="G99" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" t="s">
         <v>117</v>
       </c>
       <c r="B100" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C100" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D100" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="E100" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="F100" t="s">
+        <v>187</v>
+      </c>
+      <c r="G100" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="101" spans="1:6">
+    <row r="101" spans="1:7">
       <c r="A101" t="s">
         <v>118</v>
       </c>
       <c r="B101" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C101" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D101" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="E101" t="s">
         <v>186</v>
       </c>
       <c r="F101" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
+        <v>187</v>
+      </c>
+      <c r="G101" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" t="s">
         <v>119</v>
       </c>
@@ -3006,36 +3300,39 @@
         <v>174</v>
       </c>
       <c r="D102" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="E102" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="F102" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" t="s">
         <v>120</v>
       </c>
       <c r="B103" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C103" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D103" t="s">
+        <v>176</v>
+      </c>
+      <c r="E103" t="s">
         <v>184</v>
       </c>
-      <c r="E103" t="s">
-        <v>185</v>
-      </c>
       <c r="F103" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6">
+        <v>187</v>
+      </c>
+      <c r="G103" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" t="s">
         <v>121</v>
       </c>
@@ -3043,196 +3340,220 @@
         <v>169</v>
       </c>
       <c r="C104" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="D104" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="E104" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F104" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7">
       <c r="A105" t="s">
         <v>122</v>
       </c>
       <c r="B105" t="s">
+        <v>170</v>
+      </c>
+      <c r="C105" t="s">
         <v>172</v>
-      </c>
-      <c r="C105" t="s">
-        <v>175</v>
       </c>
       <c r="D105" t="s">
         <v>181</v>
       </c>
       <c r="E105" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F105" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="106" spans="1:6">
+      <c r="G105" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7">
       <c r="A106" t="s">
         <v>123</v>
       </c>
       <c r="B106" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C106" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="D106" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="E106" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="F106" t="s">
+        <v>189</v>
+      </c>
+      <c r="G106" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="107" spans="1:6">
+    <row r="107" spans="1:7">
       <c r="A107" t="s">
         <v>124</v>
       </c>
       <c r="B107" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C107" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="D107" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="E107" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F107" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6">
+        <v>187</v>
+      </c>
+      <c r="G107" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7">
       <c r="A108" t="s">
         <v>125</v>
       </c>
       <c r="B108" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C108" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="D108" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="E108" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="F108" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6">
+        <v>187</v>
+      </c>
+      <c r="G108" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7">
       <c r="A109" t="s">
         <v>126</v>
       </c>
       <c r="B109" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C109" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D109" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="E109" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F109" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6">
+        <v>190</v>
+      </c>
+      <c r="G109" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7">
       <c r="A110" t="s">
         <v>127</v>
       </c>
       <c r="B110" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C110" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D110" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="E110" t="s">
+        <v>184</v>
+      </c>
+      <c r="F110" t="s">
         <v>189</v>
       </c>
-      <c r="F110" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6">
+      <c r="G110" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7">
       <c r="A111" t="s">
         <v>128</v>
       </c>
       <c r="B111" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C111" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="D111" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="E111" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6">
+        <v>185</v>
+      </c>
+      <c r="F111" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7">
       <c r="A112" t="s">
         <v>129</v>
       </c>
       <c r="B112" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C112" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="D112" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="E112" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="F112" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6">
+        <v>191</v>
+      </c>
+      <c r="G112" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7">
       <c r="A113" t="s">
         <v>130</v>
       </c>
       <c r="B113" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C113" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D113" t="s">
         <v>182</v>
       </c>
       <c r="E113" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="F113" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7">
       <c r="A114" t="s">
         <v>131</v>
       </c>
@@ -3240,41 +3561,50 @@
         <v>170</v>
       </c>
       <c r="C114" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="D114" t="s">
+        <v>182</v>
+      </c>
+      <c r="E114" t="s">
         <v>184</v>
       </c>
-      <c r="E114" t="s">
-        <v>185</v>
-      </c>
       <c r="F114" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6">
+        <v>189</v>
+      </c>
+      <c r="G114" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7">
       <c r="A115" t="s">
         <v>132</v>
       </c>
       <c r="B115" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C115" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="D115" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="E115" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6">
+        <v>185</v>
+      </c>
+      <c r="F115" t="s">
+        <v>191</v>
+      </c>
+      <c r="G115" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7">
       <c r="A116" t="s">
         <v>133</v>
       </c>
       <c r="B116" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C116" t="s">
         <v>174</v>
@@ -3283,13 +3613,16 @@
         <v>181</v>
       </c>
       <c r="E116" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="F116" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6">
+        <v>187</v>
+      </c>
+      <c r="G116" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7">
       <c r="A117" t="s">
         <v>134</v>
       </c>
@@ -3297,196 +3630,223 @@
         <v>170</v>
       </c>
       <c r="C117" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="D117" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="E117" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F117" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6">
+        <v>188</v>
+      </c>
+      <c r="G117" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7">
       <c r="A118" t="s">
         <v>135</v>
       </c>
       <c r="B118" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C118" t="s">
         <v>174</v>
       </c>
       <c r="D118" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="E118" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="F118" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6">
+        <v>189</v>
+      </c>
+      <c r="G118" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7">
       <c r="A119" t="s">
         <v>136</v>
       </c>
       <c r="B119" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C119" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="D119" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="E119" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F119" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6">
+        <v>187</v>
+      </c>
+      <c r="G119" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7">
       <c r="A120" t="s">
         <v>137</v>
       </c>
       <c r="B120" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C120" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D120" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="E120" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="F120" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7">
       <c r="A121" t="s">
         <v>138</v>
       </c>
       <c r="B121" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C121" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="D121" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="E121" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F121" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="122" spans="1:6">
+      <c r="G121" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7">
       <c r="A122" t="s">
         <v>139</v>
       </c>
       <c r="B122" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C122" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="D122" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E122" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6">
+        <v>183</v>
+      </c>
+      <c r="F122" t="s">
+        <v>191</v>
+      </c>
+      <c r="G122" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7">
       <c r="A123" t="s">
         <v>140</v>
       </c>
       <c r="B123" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C123" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D123" t="s">
         <v>182</v>
       </c>
       <c r="E123" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="F123" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7">
       <c r="A124" t="s">
         <v>141</v>
       </c>
       <c r="B124" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C124" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D124" t="s">
         <v>182</v>
       </c>
       <c r="E124" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F124" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6">
+        <v>189</v>
+      </c>
+      <c r="G124" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7">
       <c r="A125" t="s">
         <v>142</v>
       </c>
       <c r="B125" t="s">
+        <v>169</v>
+      </c>
+      <c r="C125" t="s">
         <v>171</v>
       </c>
-      <c r="C125" t="s">
-        <v>174</v>
-      </c>
       <c r="D125" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="E125" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F125" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6">
+        <v>191</v>
+      </c>
+      <c r="G125" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7">
       <c r="A126" t="s">
         <v>143</v>
       </c>
       <c r="B126" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C126" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D126" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="E126" t="s">
+        <v>185</v>
+      </c>
+      <c r="F126" t="s">
         <v>189</v>
       </c>
-      <c r="F126" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6">
+      <c r="G126" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7">
       <c r="A127" t="s">
         <v>144</v>
       </c>
@@ -3494,19 +3854,22 @@
         <v>169</v>
       </c>
       <c r="C127" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="D127" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="E127" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="F127" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6">
+        <v>189</v>
+      </c>
+      <c r="G127" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7">
       <c r="A128" t="s">
         <v>145</v>
       </c>
@@ -3514,59 +3877,65 @@
         <v>170</v>
       </c>
       <c r="C128" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="D128" t="s">
         <v>182</v>
       </c>
       <c r="E128" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F128" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6">
+        <v>189</v>
+      </c>
+      <c r="G128" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7">
       <c r="A129" t="s">
         <v>146</v>
       </c>
       <c r="B129" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C129" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="D129" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="E129" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F129" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6">
+        <v>188</v>
+      </c>
+      <c r="G129" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7">
       <c r="A130" t="s">
         <v>147</v>
       </c>
       <c r="B130" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C130" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="D130" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E130" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F130" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7">
       <c r="A131" t="s">
         <v>148</v>
       </c>
@@ -3574,59 +3943,68 @@
         <v>170</v>
       </c>
       <c r="C131" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="D131" t="s">
         <v>182</v>
       </c>
       <c r="E131" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F131" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="132" spans="1:6">
+        <v>189</v>
+      </c>
+      <c r="G131" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7">
       <c r="A132" t="s">
         <v>149</v>
       </c>
       <c r="B132" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C132" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D132" t="s">
         <v>182</v>
       </c>
       <c r="E132" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F132" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="133" spans="1:6">
+        <v>189</v>
+      </c>
+      <c r="G132" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7">
       <c r="A133" t="s">
         <v>150</v>
       </c>
       <c r="B133" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C133" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="D133" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E133" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="F133" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6">
+        <v>190</v>
+      </c>
+      <c r="G133" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7">
       <c r="A134" t="s">
         <v>151</v>
       </c>
@@ -3634,7 +4012,7 @@
         <v>169</v>
       </c>
       <c r="C134" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="D134" t="s">
         <v>182</v>
@@ -3643,130 +4021,145 @@
         <v>185</v>
       </c>
       <c r="F134" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="135" spans="1:6">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7">
       <c r="A135" t="s">
         <v>152</v>
       </c>
       <c r="B135" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C135" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D135" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="E135" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="F135" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7">
       <c r="A136" t="s">
         <v>153</v>
       </c>
       <c r="B136" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C136" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="D136" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="E136" t="s">
         <v>185</v>
       </c>
       <c r="F136" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="137" spans="1:6">
+        <v>187</v>
+      </c>
+      <c r="G136" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7">
       <c r="A137" t="s">
         <v>154</v>
       </c>
       <c r="B137" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C137" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D137" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="E137" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="F137" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="138" spans="1:6">
+        <v>187</v>
+      </c>
+      <c r="G137" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7">
       <c r="A138" t="s">
         <v>155</v>
       </c>
       <c r="B138" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C138" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="D138" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="E138" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F138" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="139" spans="1:6">
+        <v>191</v>
+      </c>
+      <c r="G138" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7">
       <c r="A139" t="s">
         <v>156</v>
       </c>
       <c r="B139" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C139" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="D139" t="s">
         <v>181</v>
       </c>
       <c r="E139" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="F139" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="140" spans="1:6">
+      <c r="G139" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7">
       <c r="A140" t="s">
         <v>157</v>
       </c>
       <c r="B140" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C140" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="D140" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E140" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="F140" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="141" spans="1:6">
+        <v>191</v>
+      </c>
+      <c r="G140" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7">
       <c r="A141" t="s">
         <v>158</v>
       </c>
@@ -3774,53 +4167,65 @@
         <v>170</v>
       </c>
       <c r="C141" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="D141" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="E141" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="142" spans="1:6">
+      <c r="F141" t="s">
+        <v>191</v>
+      </c>
+      <c r="G141" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7">
       <c r="A142" t="s">
         <v>159</v>
       </c>
       <c r="B142" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C142" t="s">
         <v>174</v>
       </c>
       <c r="D142" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="E142" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="F142" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="143" spans="1:6">
+        <v>187</v>
+      </c>
+      <c r="G142" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7">
       <c r="A143" t="s">
         <v>160</v>
       </c>
       <c r="B143" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C143" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="D143" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E143" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="144" spans="1:6">
+        <v>183</v>
+      </c>
+      <c r="F143" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7">
       <c r="A144" t="s">
         <v>161</v>
       </c>
@@ -3828,19 +4233,22 @@
         <v>169</v>
       </c>
       <c r="C144" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D144" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="E144" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F144" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="145" spans="1:6">
+        <v>190</v>
+      </c>
+      <c r="G144" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7">
       <c r="A145" t="s">
         <v>162</v>
       </c>
@@ -3848,19 +4256,22 @@
         <v>169</v>
       </c>
       <c r="C145" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="D145" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="E145" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="F145" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="146" spans="1:6">
+        <v>189</v>
+      </c>
+      <c r="G145" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7">
       <c r="A146" t="s">
         <v>163</v>
       </c>
@@ -3868,19 +4279,22 @@
         <v>169</v>
       </c>
       <c r="C146" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="D146" t="s">
         <v>182</v>
       </c>
       <c r="E146" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F146" t="s">
+        <v>189</v>
+      </c>
+      <c r="G146" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="147" spans="1:6">
+    <row r="147" spans="1:7">
       <c r="A147" t="s">
         <v>164</v>
       </c>
@@ -3888,76 +4302,88 @@
         <v>169</v>
       </c>
       <c r="C147" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="D147" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E147" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F147" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="148" spans="1:6">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7">
       <c r="A148" t="s">
         <v>165</v>
       </c>
       <c r="B148" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C148" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="D148" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="E148" t="s">
         <v>186</v>
       </c>
       <c r="F148" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="149" spans="1:6">
+        <v>191</v>
+      </c>
+      <c r="G148" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7">
       <c r="A149" t="s">
         <v>166</v>
       </c>
       <c r="B149" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C149" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="D149" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="E149" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="150" spans="1:6">
+        <v>183</v>
+      </c>
+      <c r="F149" t="s">
+        <v>189</v>
+      </c>
+      <c r="G149" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7">
       <c r="A150" t="s">
         <v>167</v>
       </c>
       <c r="B150" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C150" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D150" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="E150" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F150" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="151" spans="1:6">
+        <v>187</v>
+      </c>
+      <c r="G150" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7">
       <c r="A151" t="s">
         <v>168</v>
       </c>
@@ -3965,15 +4391,18 @@
         <v>169</v>
       </c>
       <c r="C151" t="s">
+        <v>171</v>
+      </c>
+      <c r="D151" t="s">
         <v>177</v>
       </c>
-      <c r="D151" t="s">
-        <v>181</v>
-      </c>
       <c r="E151" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="F151" t="s">
+        <v>187</v>
+      </c>
+      <c r="G151" t="s">
         <v>193</v>
       </c>
     </row>
